--- a/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_30.xlsx
+++ b/pickle/rolling_corr_excel_target_index_S&P500_simulation_term_type_2_window_size_30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>S&amp;P500_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>S&amp;P500_CNY/USD</t>
   </si>
   <si>
-    <t>S&amp;P500_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>S&amp;P500_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>S&amp;P500_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>S&amp;P500_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OECD 소비자물가</t>
   </si>
   <si>
-    <t>S&amp;P500_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>S&amp;P500_두바이유가</t>
   </si>
   <si>
-    <t>S&amp;P500_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>S&amp;P500_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>S&amp;P500_미국 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>S&amp;P500_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>S&amp;P500_발틱 해운임지수</t>
   </si>
   <si>
-    <t>S&amp;P500_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>S&amp;P500_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>S&amp;P500_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>S&amp;P500_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>S&amp;P500_유로존 Core CPI</t>
   </si>
   <si>
-    <t>S&amp;P500_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>S&amp;P500_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>S&amp;P500_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>S&amp;P500_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>S&amp;P500_일본 ESI</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 REER</t>
   </si>
   <si>
-    <t>S&amp;P500_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>S&amp;P500_중국 M1 YoY</t>
   </si>
   <si>
-    <t>S&amp;P500_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>S&amp;P500_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>S&amp;P500_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>S&amp;P500_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>S&amp;P500_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,106 +2657,106 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
         <v>1</v>
       </c>
       <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -2990,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -3011,238 +2786,238 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
         <v>2</v>
       </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
         <v>2</v>
       </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="n">
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU3" t="n">
         <v>2</v>
       </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
         <v>2</v>
       </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" t="n">
+      <c r="DE3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
+      <c r="DF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DK3" t="n">
         <v>2</v>
       </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>2</v>
       </c>
       <c r="DO3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3251,40 +3026,40 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -3293,26 +3068,26 @@
         <v>2</v>
       </c>
       <c r="EK3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>1</v>
-      </c>
       <c r="ER3" t="n">
         <v>0</v>
       </c>
@@ -3323,298 +3098,298 @@
         <v>0</v>
       </c>
       <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
+      <c r="FI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
         <v>2</v>
       </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" t="n">
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
+      <c r="IG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IL3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
@@ -3622,907 +3397,757 @@
       <c r="IP3" t="n">
         <v>1</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9507077699820191</v>
+        <v>-0.9409687468988834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9317741628333068</v>
+        <v>0.9599442410302875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9152039895131516</v>
+        <v>0.78930797719733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9108163926387487</v>
+        <v>0.9085566003780916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.686059042081659</v>
+        <v>0.4911043464388246</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5232454166917384</v>
+        <v>-0.3309311207292601</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9580028154687038</v>
+        <v>0.9773018433303835</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9565566009067746</v>
+        <v>0.9440928183876053</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9604149227260068</v>
+        <v>0.6699337545681547</v>
       </c>
       <c r="K4" t="n">
-        <v>0.976275334928922</v>
+        <v>0.3744157905893042</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9659933051276927</v>
+        <v>-0.436052799098587</v>
       </c>
       <c r="M4" t="n">
-        <v>0.90085708046298</v>
+        <v>0.96854881734483</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9616810797592207</v>
+        <v>-0.7982639813328118</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9346664605789874</v>
+        <v>0.9475985059489112</v>
       </c>
       <c r="P4" t="n">
-        <v>0.537262070232564</v>
+        <v>0.9255160012287649</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6109655207127201</v>
+        <v>0.8982836136853208</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8084461663431222</v>
+        <v>0.5965755148666982</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9589242485350155</v>
+        <v>0.7690006291314249</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8532275223152427</v>
+        <v>-0.7014567708268732</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8685022880210389</v>
+        <v>0.8894458644188662</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7710688939580983</v>
+        <v>0.5463172033898054</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8630219825896435</v>
+        <v>0.9264189656335349</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6418015453922398</v>
+        <v>0.8824654972542595</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6810029215131479</v>
+        <v>-0.3306965408575562</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7413623166586832</v>
+        <v>0.887667807694654</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9076068706474827</v>
+        <v>0.7186732071720314</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6875776726606041</v>
+        <v>0.9024846948594956</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9418680617407399</v>
+        <v>0.665829314824754</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8748807569941658</v>
+        <v>0.9387174211487901</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1636888682106029</v>
+        <v>0.7723314888687893</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8941966269092306</v>
+        <v>0.8218753004213967</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6743155831601155</v>
+        <v>0.6207408208318695</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9326968948848899</v>
+        <v>0.195445071157133</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6762645913616634</v>
+        <v>0.9324421427295864</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.9527490679746901</v>
+        <v>-0.05271595321982655</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7509124744852091</v>
+        <v>0.877444327101854</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5359445179068657</v>
+        <v>-0.05760533877332533</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7255621573353196</v>
+        <v>-0.8144723940644185</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2782310929986453</v>
+        <v>-0.7312801545929576</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9545665317016053</v>
+        <v>0.9664725732305105</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3107440126728929</v>
+        <v>0.2593281780514316</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9000638937031902</v>
+        <v>-0.7557833822027289</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2685163566123865</v>
+        <v>-0.5799689945843731</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.4189534933424514</v>
+        <v>0.9684839149598838</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.765047528798308</v>
+        <v>0.9927599607782217</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9727280401290272</v>
+        <v>0.9955944892359619</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2919709092613047</v>
+        <v>0.9622051585709392</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7826964344179642</v>
+        <v>0.953244195349593</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7631932543946827</v>
+        <v>0.9693905344652635</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9823857358452648</v>
+        <v>0.9956200194436523</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9949495765608933</v>
+        <v>0.9955861047964403</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9944821141462566</v>
+        <v>0.9620473275077094</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9654975829789496</v>
+        <v>0.9672949801823678</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.9839836459861758</v>
+        <v>0.9068379349592378</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9858508696819624</v>
+        <v>0.8522256745144685</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.995037503507879</v>
+        <v>0.1867256409238332</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9926919888608438</v>
+        <v>0.8805205897478934</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9540886279213709</v>
+        <v>-0.1149245516954642</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8814410957785133</v>
+        <v>0.8589082003634524</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.8936274801033919</v>
+        <v>-0.1182303806341648</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7521610382007387</v>
+        <v>0.8893094440998196</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3330079553779048</v>
+        <v>0.9213493677321029</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.262656911329207</v>
+        <v>0.4656268879409635</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9021493329904882</v>
+        <v>-0.7173149578281562</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8942466052527117</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9693079764245842</v>
+        <v>0.8971306484144772</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3177177406809331</v>
+        <v>0.9894509204271522</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8834860490797608</v>
+        <v>0.4407108553128825</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.07967328819068306</v>
+        <v>0.9743396578994018</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.9108969003440925</v>
+        <v>0.9023035063551379</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.8693006083478496</v>
+        <v>0.4137040251305323</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.654533579598374</v>
+        <v>0.8295839641961591</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3988790451422951</v>
+        <v>0.8436090585385303</v>
       </c>
       <c r="BW4" t="n">
-        <v>1</v>
+        <v>0.8428040407267005</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.8899386319039417</v>
+        <v>-0.712545553869055</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9913097389884672</v>
+        <v>-0.2917354860421004</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.8075391148667238</v>
+        <v>0.8405790557113658</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9735840979524614</v>
+        <v>0.9599215765933532</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.8945048061757708</v>
+        <v>0.8942548100328166</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6693287854790529</v>
+        <v>0.8623825499742828</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8899800292471587</v>
+        <v>0.3380060015914792</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7563331593965861</v>
+        <v>0.6364647245606868</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7806844183635206</v>
+        <v>0.7244508239688888</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8992466787061353</v>
+        <v>-0.3761696541748878</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.3616811377552318</v>
+        <v>0.8644070012346395</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.460351636353738</v>
+        <v>0.3030858740578814</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.867546014804838</v>
+        <v>-0.2635158852100451</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8216036287139251</v>
+        <v>0.321486513094408</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.7153185914061296</v>
+        <v>-0.2133885629155333</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.4693266999369538</v>
+        <v>0.4524050703265653</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7348791565816505</v>
+        <v>0.9770890466244327</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.751703167834004</v>
+        <v>-0.5163739085875184</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.668998869858116</v>
+        <v>0.9294759471099809</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8640093012840288</v>
+        <v>0.9743130778637739</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5990458857859292</v>
+        <v>-0.6681216544986579</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1437545771118296</v>
+        <v>0.9511069398886022</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.4202446324253202</v>
+        <v>0.5235681087757745</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1704660872507929</v>
+        <v>0.9188014174797553</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6724000718966111</v>
+        <v>0.9088937873878299</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9771075448227541</v>
+        <v>0.8784788617360411</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3645403296200637</v>
+        <v>0.917956612003081</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.8007396228784829</v>
+        <v>-0.5745481095266822</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9782233958022066</v>
+        <v>0.833895237650945</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5611585798866366</v>
+        <v>0.7552797802941338</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.9563327276948904</v>
+        <v>0.9245649781596886</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5627708843228202</v>
+        <v>-0.4509416439882277</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.9145679825642623</v>
+        <v>0.5724503447329058</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.932119366315685</v>
+        <v>0.7450598831476546</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8923459627643504</v>
+        <v>0.1414543544248974</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9491894941906982</v>
+        <v>0.9114915904729475</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.6241793578210461</v>
+        <v>-0.399190442699978</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.8033330578834215</v>
+        <v>0.811766412161458</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.5294416613610237</v>
+        <v>-0.6708514223532779</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9347989368907673</v>
+        <v>0.5218655897590815</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.7057082132284858</v>
+        <v>-0.3495025099546003</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7001200144808321</v>
+        <v>-0.8806262996168078</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.8100364925598579</v>
+        <v>0.8309491703651578</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.166492080442974</v>
+        <v>0.4100499433762488</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.9078944593243569</v>
+        <v>-0.4398578640192053</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8964406468738102</v>
+        <v>0.9770890466244327</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8612975630049227</v>
+        <v>0.96598696200588</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1774368809159982</v>
+        <v>0.9535174183191003</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.8079643588937621</v>
+        <v>0.8552130284937505</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7098792837360542</v>
+        <v>0.935001580387085</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.5421482749150036</v>
+        <v>0.61713080517735</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3782602123022458</v>
+        <v>0.7829423494805954</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.755288797139835</v>
+        <v>-0.9253881963240734</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.825513956148565</v>
+        <v>0.9928405935946276</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.9068417607163228</v>
+        <v>0.7630837036045971</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3716637863840613</v>
+        <v>0.9595841639403827</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.4873220666676261</v>
+        <v>0.9704893230023623</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9294760146228234</v>
+        <v>0.695113419404348</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9771075448227541</v>
+        <v>-0.7144959693147803</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9696690565794231</v>
+        <v>0.3183990809095995</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.8829640629446881</v>
+        <v>-0.1054595647658952</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.733111417678213</v>
+        <v>0.9006635810559052</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9302153430356667</v>
+        <v>0.963871076332169</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.3943452173162778</v>
+        <v>0.6063620880262087</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8937148731511768</v>
+        <v>0.8879597509024013</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9460170255158367</v>
+        <v>0.9484134138421074</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.9927952914350699</v>
+        <v>0.8827348854178066</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7232260264207691</v>
+        <v>0.8638340079983615</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9587637027075154</v>
+        <v>0.9218222891972211</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9662051924718442</v>
+        <v>-0.977613713706541</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6859782313115309</v>
+        <v>0.9439107025258221</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7981950329133447</v>
+        <v>0.2001188210266098</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.2749176116655812</v>
+        <v>0.875687707962954</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1966460018834554</v>
+        <v>-0.889640068885045</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8443225592617459</v>
+        <v>-0.9280970606873647</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9572305709236076</v>
+        <v>-0.9330338510108712</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.3323530627867208</v>
+        <v>0.7701542073842322</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8862759907967855</v>
+        <v>0.8064320597985164</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9351907131587074</v>
+        <v>0.8859914294313039</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8932776198192129</v>
+        <v>0.6270515344426495</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8654097704562007</v>
+        <v>0.6260032903853482</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.914392066847057</v>
+        <v>0.4385115996357649</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9727016650347097</v>
+        <v>-0.5625369908628765</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9410259212817065</v>
+        <v>0.3744157905893042</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.254408728454341</v>
+        <v>0.8740644473832118</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.6950357759680754</v>
+        <v>0.5638645122342556</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8969206988770937</v>
+        <v>0.34048153743649</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9339822719087925</v>
+        <v>-0.5334359700140869</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9422215207116875</v>
+        <v>0.8011872311474637</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7444289954357433</v>
+        <v>-0.4685936617255798</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7976354684150857</v>
+        <v>-0.305483976258054</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8581091305871412</v>
+        <v>-0.5912418380459015</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9667251415289441</v>
+        <v>0.2049626230946996</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.7183932346883319</v>
+        <v>0.9521871557192503</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.5698752497495401</v>
+        <v>0.7561928301501074</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.3673588197735142</v>
+        <v>-0.4877868648570392</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.4043008343138763</v>
+        <v>-0.8414101921292878</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.6109655207127201</v>
+        <v>0.9153686120141763</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.902712188444882</v>
+        <v>0.4689561661294837</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.4023649387965859</v>
+        <v>0.2007913738320812</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5101361518274286</v>
+        <v>0.7579126535304355</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.2576746404571278</v>
+        <v>0.9521871557192503</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8383553838664415</v>
+        <v>0.6595236034615598</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4714125365792267</v>
+        <v>0.7595019830621239</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1993994530229005</v>
+        <v>0.8118169979998799</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.4929348854328233</v>
+        <v>-0.6501556261347993</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6727981701701723</v>
+        <v>-0.2234492159061959</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4555006187687409</v>
+        <v>-0.6849187807880299</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.1571978743990333</v>
+        <v>0.7204117022630271</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9215023514626741</v>
+        <v>0.6962405880012974</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.697181032514069</v>
+        <v>0.5811899039061353</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2531369222803973</v>
+        <v>0.8996134047306161</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8051796471611329</v>
+        <v>0.9318625087710868</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8999400922573807</v>
+        <v>0.4544351940326807</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3641366073886804</v>
+        <v>0.9034848018519696</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.8839738888254047</v>
+        <v>-0.8353161646180429</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.6147811543169709</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.6986084637879942</v>
+        <v>-0.152496900501754</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9215023514626741</v>
+        <v>0.424271147028764</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.353740002316489</v>
+        <v>0.957793995686568</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8642887349318178</v>
+        <v>0.8671466420251214</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.2818479653466988</v>
+        <v>-0.4797745818245573</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7830080311360701</v>
+        <v>-0.7205726415149021</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.8085328449852817</v>
+        <v>1.263891897637905e-15</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.1396058630721597</v>
+        <v>1.263891897637905e-15</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.7330046278245361</v>
+        <v>0.7592184939177732</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.2930475114690516</v>
+        <v>0.6954022515458668</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6951727911828764</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8183871675050511</v>
+        <v>0.4054361690676392</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7063787794614311</v>
+        <v>0.2766630224377184</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5398972860947563</v>
+        <v>0.5542449143368899</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.9014995612823826</v>
+        <v>0.6284006469013341</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8739176283678849</v>
+        <v>-0.6538928454476131</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2121435593970711</v>
+        <v>0.8130973876516808</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8076842238731176</v>
+        <v>0.7434407576181894</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8362004599951472</v>
+        <v>-0.477338358799445</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.3055343796655576</v>
+        <v>-0.7271372156012664</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.188612225939662</v>
+        <v>0.2843602996321049</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4337506396594763</v>
+        <v>-0.3261679980863217</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9352333421480665</v>
+        <v>0.3437545895098722</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.7512427921490422</v>
+        <v>0.9776386194012712</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9344944625374544</v>
+        <v>-0.8282312940603975</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.780478886423885</v>
+        <v>0.2297682395083503</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7605233657408585</v>
+        <v>0.3608786982787844</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.3055343796655574</v>
+        <v>0.7399693307434225</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.3055343796655574</v>
+        <v>0.8770604218450274</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8098784769675038</v>
+        <v>-0.2653093917041874</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.736826105512483</v>
+        <v>-0.1905541552710231</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.3055343796655576</v>
+        <v>-0.3712511475379793</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.2102123198491203</v>
+        <v>-0.1345812783555487</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4009609478362719</v>
+        <v>-0.7071304742979668</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5478904940879102</v>
+        <v>0.9674201215050028</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7944631656618034</v>
+        <v>-0.3792452825665709</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6523427964330208</v>
+        <v>0.6258345497039798</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.9172154195679515</v>
+        <v>0.5032825054194283</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8957724540213254</v>
+        <v>0.7902412691359106</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8890963175007767</v>
+        <v>0.6875636653976013</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.1628994041069443</v>
+        <v>0.5826980358648999</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.9055755705188673</v>
+        <v>-0.2550191908905055</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.7002589092361512</v>
+        <v>-0.5732438557655738</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4992743744280465</v>
+        <v>-0.3085264357620133</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6114595696451118</v>
+        <v>-0.3385773947105446</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4066831461389196</v>
+        <v>-0.8356787558852538</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.02615924673520782</v>
+        <v>0.7535279086889024</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.4207384211140048</v>
+        <v>0.1393682514004604</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9686692719051799</v>
+        <v>-0.7558486779118333</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.7686438214255038</v>
+        <v>-0.6053864283467733</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4451830516783568</v>
+        <v>0.7535279086889024</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5288824504983538</v>
+        <v>0.7112403273214249</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2270141482260102</v>
+        <v>-0.3773034535669058</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7453890984226277</v>
+        <v>0.3544873145174056</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1760780899290427</v>
+        <v>-0.3336699458394549</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.06040699034951201</v>
+        <v>-0.5536494705263439</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3203494104421862</v>
+        <v>0.9371721882397264</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2328318250774152</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.826007435453466</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9585203181010226</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4778394961080425</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.654467493110392</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5336785820334695</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8493016604746082</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8208047109952527</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7817105277353418</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3003115797622079</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5191772010475563</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1545103491395808</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.293664234668365</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.7700003390651173</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.758090999664587</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2243193104225943</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8444551620418047</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5104493632762918</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.758090999664587</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8194041723648191</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5012931383380538</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2946909413365604</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.308740353837566</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.5056881309892312</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9381981275339134</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8633670323505287</v>
+        <v>0.8299104567981056</v>
       </c>
     </row>
   </sheetData>
